--- a/data/unchecked/manual_collect/italy/ItalyCaseStatistics_20200224.xlsx
+++ b/data/unchecked/manual_collect/italy/ItalyCaseStatistics_20200224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\深度学习与区块链材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D33DDE0-61FF-482A-939D-E6DCC3622C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EDC9FD-C4A2-42EE-99B3-8F3B1514369B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,6 @@
     <t>核查通过</t>
   </si>
   <si>
-    <t>2020/2/23 00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/2/24 00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,6 +194,10 @@
   </si>
   <si>
     <t>东方网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/2/25 00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +589,7 @@
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>22</v>
@@ -749,10 +749,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -782,46 +782,46 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T2" s="6">
         <v>43886.343055555553</v>
       </c>
       <c r="U2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="W2" s="6">
         <v>43886.384027777778</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>42</v>
